--- a/BalanceSheet/MSCI_bal.xlsx
+++ b/BalanceSheet/MSCI_bal.xlsx
@@ -1815,19 +1815,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-7901000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>9364000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-1781000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1435000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-1536000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>6498000.0</v>
@@ -2985,19 +2985,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1142000.0</v>
+        <v>-10000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-51023000.0</v>
+        <v>-11000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>5222000.0</v>
+        <v>40000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-4679000.0</v>
+        <v>34000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-5165000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>66639000.0</v>
@@ -4651,7 +4651,7 @@
         <v>2287000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1751000000.0</v>
+        <v>1587359000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1697009000.0</v>
@@ -4778,7 +4778,7 @@
         <v>3354000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>3258000000.0</v>
+        <v>3093926000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>2578159000.0</v>
